--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF6A8F-42DD-426A-8DA3-159FC67C7D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2080B875-2BE9-4322-A259-6C1C2A40E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>SlNo</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>onboarding employ workflow</t>
+  </si>
+  <si>
+    <t>interview question</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>java ms refresher course</t>
   </si>
 </sst>
 </file>
@@ -551,7 +563,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,18 +631,34 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44473</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2080B875-2BE9-4322-A259-6C1C2A40E26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA129DDC-D0B5-4F5B-B5B1-2B254FB4F686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>java ms refresher course</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>java 8</t>
+  </si>
+  <si>
+    <t>Java projec,java 8</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,32 +670,60 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44474</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA129DDC-D0B5-4F5B-B5B1-2B254FB4F686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AED2E-671F-4391-AA2A-E536D4CB8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>SlNo</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Java projec,java 8</t>
+  </si>
+  <si>
+    <t>import new project</t>
+  </si>
+  <si>
+    <t>java8</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,32 +732,64 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44475</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44476</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AED2E-671F-4391-AA2A-E536D4CB8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B4B9A-77FB-4049-B907-2EC5DE264C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>java8</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,25 +795,47 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44477</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B4B9A-77FB-4049-B907-2EC5DE264C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C4A3E-5480-4717-A779-58BFBD29EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>meeting</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>java training</t>
+  </si>
+  <si>
+    <t>java funtional interface</t>
+  </si>
+  <si>
+    <t>java program</t>
   </si>
 </sst>
 </file>
@@ -581,7 +596,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,25 +853,47 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44480</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C4A3E-5480-4717-A779-58BFBD29EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A41090-6BA1-4918-88E2-74682B3A9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>SlNo</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>java program</t>
+  </si>
+  <si>
+    <t>camunda Training</t>
+  </si>
+  <si>
+    <t>what is BPM,Business process,Bpm Elements</t>
+  </si>
+  <si>
+    <t>camunda Revision</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,25 +905,47 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44481</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A41090-6BA1-4918-88E2-74682B3A9001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09502B73-F972-40D7-964D-DFB44F9ACB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>SlNo</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>camunda Revision</t>
+  </si>
+  <si>
+    <t>camunda,workflow</t>
+  </si>
+  <si>
+    <t>camunda</t>
+  </si>
+  <si>
+    <t>camunda springboot installation</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>java Task</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>spring boot setup,Tomcat setup</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>overall revision camunda</t>
   </si>
 </sst>
 </file>
@@ -604,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,46 +975,86 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44482</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09502B73-F972-40D7-964D-DFB44F9ACB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C9BE8-874A-47CB-88BF-4D623E1476BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>SlNo</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>overall revision camunda</t>
+  </si>
+  <si>
+    <t>Camunda Basic</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>presentation session</t>
+  </si>
+  <si>
+    <t>camunda setup</t>
   </si>
 </sst>
 </file>
@@ -631,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,39 +1069,77 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44483</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="2">
+        <v>11</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44484</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C9BE8-874A-47CB-88BF-4D623E1476BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617A9F6-8CC8-4B77-B9B9-44183C079A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>camunda setup</t>
+  </si>
+  <si>
+    <t>how to start camunda engine,depoly workflow</t>
+  </si>
+  <si>
+    <t>java Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task </t>
+  </si>
+  <si>
+    <t>Camunda Training</t>
+  </si>
+  <si>
+    <t>user task workflow</t>
+  </si>
+  <si>
+    <t>task</t>
   </si>
 </sst>
 </file>
@@ -643,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,39 +1160,73 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="2">
+        <v>12</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44487</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617A9F6-8CC8-4B77-B9B9-44183C079A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722778F-F656-4FAD-BC2E-13230E7D9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>SlNo</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>task</t>
+  </si>
+  <si>
+    <t>service task</t>
+  </si>
+  <si>
+    <t>Types of task</t>
+  </si>
+  <si>
+    <t>workflow ,revision</t>
   </si>
 </sst>
 </file>
@@ -661,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,32 +1238,60 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="B41" s="2">
+        <v>13</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44488</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722778F-F656-4FAD-BC2E-13230E7D9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD471CD2-CCDD-4774-82B2-F83600D8473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>SlNo</t>
   </si>
@@ -168,6 +168,30 @@
   </si>
   <si>
     <t>workflow ,revision</t>
+  </si>
+  <si>
+    <t>camunda discussion</t>
+  </si>
+  <si>
+    <t>team discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>java workflow</t>
+  </si>
+  <si>
+    <t>camunda training</t>
+  </si>
+  <si>
+    <t>script task</t>
+  </si>
+  <si>
+    <t>task flow,basic task</t>
+  </si>
+  <si>
+    <t>java flow</t>
   </si>
 </sst>
 </file>
@@ -671,7 +695,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,39 +1318,73 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44489</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="D46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>

--- a/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
+++ b/Gayathri/Timesheet/Schwall_Gayathri_Timesheet_october_2021 - Copy - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD471CD2-CCDD-4774-82B2-F83600D8473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F97A14-E93B-4BE0-BF7C-3D30CB3FB3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>SlNo</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>java flow</t>
+  </si>
+  <si>
+    <t>Gateways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camunda </t>
+  </si>
+  <si>
+    <t>gateways</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>gateways,task</t>
   </si>
 </sst>
 </file>
@@ -694,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,39 +1402,73 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="B50" s="2">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44490</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
